--- a/02/unityProject/Assets/doc/TestControl.xlsx
+++ b/02/unityProject/Assets/doc/TestControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4954F206-3BBD-43ED-9D94-CCA6FD4509CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AF4E87-CDA7-4CB4-BBC5-378256165F2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>thumbnail</t>
   </si>
@@ -404,9 +404,44 @@
     <t>100003</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/18 20:37:30
+    <t>S_0002</t>
+  </si>
+  <si>
+    <t>S_0003</t>
+  </si>
+  <si>
+    <t>S_0004</t>
+  </si>
+  <si>
+    <t>set_0or1();</t>
+  </si>
+  <si>
+    <t>create_sphere();</t>
+  </si>
+  <si>
+    <t>br_0(S_0003);
+br_1(S_0004);</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>create_cylinder();</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/18 21:40:11
 ; * pssgEditor version : 0.7.0.b0081ca2ae62b99c38b127566c8ee8eedac0f9a6
 psggfile=@@@
+TestControl.psgg
 @@@
 xlsfile=@@@
 TestControl.xlsx
@@ -421,7 +456,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Moved a state
+Changed an arrow direction
 @@@
 target_pathdir=@@@
 /
@@ -429,7 +464,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":581,"y":201}},{"Key":"S_0001","Value":{"x":266,"y":221}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":890,"y":136}},{"Key":"S_0001","Value":{"x":49,"y":324}},{"Key":"S_0002","Value":{"x":275,"y":327}},{"Key":"S_0003","Value":{"x":569,"y":269}},{"Key":"S_0004","Value":{"x":553,"y":504}},{"Key":"S_0005","Value":{"x":824,"y":370}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1028,7 +1063,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1042,7 +1077,7 @@
     <col min="1" max="16384" width="15.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -1053,8 +1088,20 @@
       <c r="F1" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1">
+      <c r="G1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1071,8 +1118,20 @@
       <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1">
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -1089,8 +1148,20 @@
       <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" ht="18.75" customHeight="1">
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>14</v>
@@ -1103,18 +1174,32 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="10" customFormat="1">
+      <c r="I4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="18.75" customHeight="1">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>16</v>
@@ -1125,8 +1210,20 @@
       <c r="F6" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1">
+      <c r="G6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>17</v>
@@ -1135,8 +1232,12 @@
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="18.75" customHeight="1">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>18</v>
@@ -1145,8 +1246,14 @@
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>19</v>
@@ -1155,8 +1262,12 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>20</v>
@@ -1165,8 +1276,14 @@
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1">
       <c r="A11" s="17"/>
       <c r="B11" s="17" t="s">
         <v>21</v>
@@ -1175,8 +1292,12 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>1</v>
@@ -1185,8 +1306,12 @@
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>22</v>
@@ -1195,8 +1320,12 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" s="12" customFormat="1">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" s="12" customFormat="1" ht="37.5">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
@@ -1205,8 +1334,14 @@
       <c r="D14" s="18"/>
       <c r="E14" s="11"/>
       <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="G14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
         <v>24</v>
@@ -1215,16 +1350,24 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" s="13" customFormat="1">
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" s="13" customFormat="1">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="56.25">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" s="13" customFormat="1" ht="56.25">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -1235,8 +1378,20 @@
       <c r="F17" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="13" customFormat="1">
+      <c r="G17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="13" customFormat="1">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>26</v>
@@ -1250,6 +1405,18 @@
       </c>
       <c r="F18" s="20" t="s">
         <v>34</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1436,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
